--- a/portefeuille_competence/Tableau_de_synthèse.xlsx
+++ b/portefeuille_competence/Tableau_de_synthèse.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\BTS\2025\CIRCULAIRES NATIONALES\SIO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Synchro PC DELL E5470\Users\Valentin L\Documents\BTS_SIO\PortFolio\finale\portefeuille_competence\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{721C305C-71A1-42CC-9BDA-46AB63B44661}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11250"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tableau de synthèse Épreuve E5" sheetId="1" r:id="rId1"/>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="52">
   <si>
     <t>Gérer le patrimoine informatique</t>
   </si>
@@ -85,12 +86,6 @@
 ▸Développer son projet professionnel</t>
   </si>
   <si>
-    <t>Centre de formation :</t>
-  </si>
-  <si>
-    <t>▢ SISR</t>
-  </si>
-  <si>
     <t>▢ SLAM</t>
   </si>
   <si>
@@ -103,12 +98,6 @@
 (intitulé et liste des documents et productions associés)</t>
   </si>
   <si>
-    <t xml:space="preserve">N° candidat : </t>
-  </si>
-  <si>
-    <t xml:space="preserve">NOM et prénom : </t>
-  </si>
-  <si>
     <t>Période (sous la forme du JJ/MM/AA au JJ/MM/AA)</t>
   </si>
   <si>
@@ -118,20 +107,107 @@
     <t>Réalisations en milieu professionnel en cours de seconde année</t>
   </si>
   <si>
-    <t>Adresse URL du portfolio :</t>
-  </si>
-  <si>
     <t>SESSION 2025</t>
+  </si>
+  <si>
+    <t>N° candidat : 02148818110</t>
+  </si>
+  <si>
+    <t>X SISR</t>
+  </si>
+  <si>
+    <t>NOM et prénom :  LESNES Valentin</t>
+  </si>
+  <si>
+    <t>Centre de formation : Business School By CSND</t>
+  </si>
+  <si>
+    <t>Adresse URL du portfolio : https://valentil3.github.io/Portefolio/</t>
+  </si>
+  <si>
+    <t>Déploiement des Serveurs WDS et MDT</t>
+  </si>
+  <si>
+    <t>Support aux utilisateurs</t>
+  </si>
+  <si>
+    <t>Administration &amp; Cartographie réseau</t>
+  </si>
+  <si>
+    <t>Dépannage d'ordinateurs</t>
+  </si>
+  <si>
+    <t>Installation ordinateurs fixes et portables</t>
+  </si>
+  <si>
+    <t>Dépannage ordinateurs fixes et portables</t>
+  </si>
+  <si>
+    <t>Mise en place de VLANs</t>
+  </si>
+  <si>
+    <t>Refonte des procédures de sauvegarde à partir d'un modèle</t>
+  </si>
+  <si>
+    <t>27/05/24 au 28/06/24</t>
+  </si>
+  <si>
+    <t>06/01/25 au 14/02/25</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>Veille technologique</t>
+  </si>
+  <si>
+    <t>10/09/24 au 25/03/25</t>
+  </si>
+  <si>
+    <t>Serveur DFS</t>
+  </si>
+  <si>
+    <t>24/03/25 au 31/03/25</t>
+  </si>
+  <si>
+    <t>Plan de continuité d'activitée</t>
+  </si>
+  <si>
+    <t>31/03/25 au 07/04/25</t>
+  </si>
+  <si>
+    <t>TP Active Directory &amp; GPO</t>
+  </si>
+  <si>
+    <t>22/03/24 au 29/03/24</t>
+  </si>
+  <si>
+    <t>TP SNMP</t>
+  </si>
+  <si>
+    <t>11/12/24 au 18/12/24</t>
+  </si>
+  <si>
+    <t>14/09/21 au 3/05/22</t>
+  </si>
+  <si>
+    <t>Projet Mykrosauft</t>
+  </si>
+  <si>
+    <t>TP DHCP</t>
+  </si>
+  <si>
+    <t>15/05/24 au 22/05/24</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_-* #,##0.00\ [$€-1]_-;\-* #,##0.00\ [$€-1]_-;_-* &quot;-&quot;??\ [$€-1]_-"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -189,7 +265,36 @@
       <family val="2"/>
     </font>
     <font>
+      <b/>
       <sz val="16"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -202,7 +307,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="29">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -214,21 +319,6 @@
       <left style="thin">
         <color theme="2" tint="-0.749992370372631"/>
       </left>
-      <right style="thin">
-        <color theme="2" tint="-0.749992370372631"/>
-      </right>
-      <top style="thin">
-        <color theme="2" tint="-0.749992370372631"/>
-      </top>
-      <bottom style="thin">
-        <color theme="2" tint="-0.749992370372631"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="2" tint="-0.749992370372631"/>
-      </left>
       <right/>
       <top style="thin">
         <color theme="2" tint="-0.749992370372631"/>
@@ -263,7 +353,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color theme="2" tint="-0.749992370372631"/>
       </left>
       <right style="thin">
@@ -281,73 +371,13 @@
       <left style="thin">
         <color theme="2" tint="-0.749992370372631"/>
       </left>
-      <right style="thin">
+      <right style="medium">
         <color theme="2" tint="-0.749992370372631"/>
       </right>
       <top style="medium">
         <color theme="2" tint="-0.749992370372631"/>
       </top>
       <bottom style="thin">
-        <color theme="2" tint="-0.749992370372631"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="2" tint="-0.749992370372631"/>
-      </left>
-      <right style="medium">
-        <color theme="2" tint="-0.749992370372631"/>
-      </right>
-      <top style="medium">
-        <color theme="2" tint="-0.749992370372631"/>
-      </top>
-      <bottom style="thin">
-        <color theme="2" tint="-0.749992370372631"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="2" tint="-0.749992370372631"/>
-      </left>
-      <right style="thin">
-        <color theme="2" tint="-0.749992370372631"/>
-      </right>
-      <top style="thin">
-        <color theme="2" tint="-0.749992370372631"/>
-      </top>
-      <bottom style="medium">
-        <color theme="2" tint="-0.749992370372631"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="2" tint="-0.749992370372631"/>
-      </left>
-      <right style="thin">
-        <color theme="2" tint="-0.749992370372631"/>
-      </right>
-      <top style="thin">
-        <color theme="2" tint="-0.749992370372631"/>
-      </top>
-      <bottom style="medium">
-        <color theme="2" tint="-0.749992370372631"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="2" tint="-0.749992370372631"/>
-      </left>
-      <right style="medium">
-        <color theme="2" tint="-0.749992370372631"/>
-      </right>
-      <top style="thin">
-        <color theme="2" tint="-0.749992370372631"/>
-      </top>
-      <bottom style="medium">
         <color theme="2" tint="-0.749992370372631"/>
       </bottom>
       <diagonal/>
@@ -404,36 +434,6 @@
         <color theme="2" tint="-0.749992370372631"/>
       </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="2" tint="-0.749992370372631"/>
-      </left>
-      <right style="thin">
-        <color theme="2" tint="-0.749992370372631"/>
-      </right>
-      <top style="thin">
-        <color theme="2" tint="-0.749992370372631"/>
-      </top>
-      <bottom style="thin">
-        <color theme="2" tint="-0.749992370372631"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="2" tint="-0.749992370372631"/>
-      </left>
-      <right style="medium">
-        <color theme="2" tint="-0.749992370372631"/>
-      </right>
-      <top style="thin">
-        <color theme="2" tint="-0.749992370372631"/>
-      </top>
-      <bottom style="thin">
-        <color theme="2" tint="-0.749992370372631"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -583,6 +583,73 @@
       <top style="thin">
         <color theme="2" tint="-0.749992370372631"/>
       </top>
+      <bottom style="medium">
+        <color theme="2" tint="-0.749992370372631"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="2" tint="-0.749992370372631"/>
+      </left>
+      <right style="thin">
+        <color theme="2" tint="-0.749992370372631"/>
+      </right>
+      <top style="medium">
+        <color theme="2" tint="-0.749992370372631"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="2" tint="-0.749992370372631"/>
+      </left>
+      <right style="medium">
+        <color theme="2" tint="-0.749992370372631"/>
+      </right>
+      <top style="medium">
+        <color theme="2" tint="-0.749992370372631"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="2" tint="-0.749992370372631"/>
+      </left>
+      <right style="thin">
+        <color theme="2" tint="-0.749992370372631"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color theme="2" tint="-0.749992370372631"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="2" tint="-0.749992370372631"/>
+      </left>
+      <right style="medium">
+        <color theme="2" tint="-0.749992370372631"/>
+      </right>
+      <top/>
       <bottom style="medium">
         <color theme="2" tint="-0.749992370372631"/>
       </bottom>
@@ -593,7 +660,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -610,135 +677,156 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Euro" xfId="1"/>
+    <cellStyle name="Euro" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -830,6 +918,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -865,6 +970,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1040,104 +1162,104 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:AQ81"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:H1"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="70.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="68" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" style="1" customWidth="1"/>
     <col min="3" max="8" width="18.7109375" style="1" customWidth="1"/>
     <col min="9" max="43" width="11.42578125" customWidth="1"/>
     <col min="44" max="16384" width="10.85546875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:43" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="H1" s="28"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" s="13"/>
     </row>
     <row r="2" spans="1:43" ht="41.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
     </row>
     <row r="3" spans="1:43" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="40" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" s="41"/>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="46" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3" s="41"/>
-      <c r="H3" s="47"/>
+      <c r="A3" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="15"/>
+      <c r="H3" s="21"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
     <row r="4" spans="1:43" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="43" t="s">
+      <c r="A4" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="44"/>
-      <c r="C4" s="44"/>
-      <c r="D4" s="44"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="G4" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" s="25" t="s">
+    </row>
+    <row r="5" spans="1:43" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="27"/>
+      <c r="C5" s="27"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="27"/>
+      <c r="H5" s="28"/>
+    </row>
+    <row r="6" spans="1:43" ht="90" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="22" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="5" spans="1:43" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="37" t="s">
-        <v>25</v>
-      </c>
-      <c r="B5" s="38"/>
-      <c r="C5" s="38"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="38"/>
-      <c r="H5" s="39"/>
-    </row>
-    <row r="6" spans="1:43" ht="90" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" s="35" t="s">
-        <v>22</v>
+      <c r="B6" s="24" t="s">
+        <v>18</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>0</v>
@@ -1159,8 +1281,8 @@
       </c>
     </row>
     <row r="7" spans="1:43" s="2" customFormat="1" ht="324.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="27"/>
-      <c r="B7" s="36"/>
+      <c r="A7" s="23"/>
+      <c r="B7" s="25"/>
       <c r="C7" s="8" t="s">
         <v>9</v>
       </c>
@@ -1215,17 +1337,17 @@
       <c r="AP7"/>
       <c r="AQ7"/>
     </row>
-    <row r="8" spans="1:43" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A8" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" s="30"/>
-      <c r="C8" s="30"/>
-      <c r="D8" s="30"/>
-      <c r="E8" s="30"/>
-      <c r="F8" s="30"/>
-      <c r="G8" s="30"/>
-      <c r="H8" s="31"/>
+    <row r="8" spans="1:43" s="2" customFormat="1" ht="20.25" x14ac:dyDescent="0.2">
+      <c r="A8" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="31"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="31"/>
+      <c r="H8" s="32"/>
       <c r="I8"/>
       <c r="J8"/>
       <c r="K8"/>
@@ -1263,14 +1385,14 @@
       <c r="AQ8"/>
     </row>
     <row r="9" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="12"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="20"/>
+      <c r="A9" s="37"/>
+      <c r="B9" s="38"/>
+      <c r="C9" s="39"/>
+      <c r="D9" s="39"/>
+      <c r="E9" s="39"/>
+      <c r="F9" s="39"/>
+      <c r="G9" s="39"/>
+      <c r="H9" s="39"/>
       <c r="I9"/>
       <c r="J9"/>
       <c r="K9"/>
@@ -1308,14 +1430,14 @@
       <c r="AQ9"/>
     </row>
     <row r="10" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="12"/>
-      <c r="B10" s="10"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="20"/>
+      <c r="A10" s="40"/>
+      <c r="B10" s="38"/>
+      <c r="C10" s="39"/>
+      <c r="D10" s="39"/>
+      <c r="E10" s="39"/>
+      <c r="F10" s="39"/>
+      <c r="G10" s="39"/>
+      <c r="H10" s="39"/>
       <c r="I10"/>
       <c r="J10"/>
       <c r="K10"/>
@@ -1352,15 +1474,23 @@
       <c r="AP10"/>
       <c r="AQ10"/>
     </row>
-    <row r="11" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="12"/>
-      <c r="B11" s="10"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="20"/>
+    <row r="11" spans="1:43" s="2" customFormat="1" ht="47.25" x14ac:dyDescent="0.2">
+      <c r="A11" s="41" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11" s="42" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11" s="43" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" s="43"/>
+      <c r="E11" s="43"/>
+      <c r="F11" s="43"/>
+      <c r="G11" s="43" t="s">
+        <v>37</v>
+      </c>
+      <c r="H11" s="43"/>
       <c r="I11"/>
       <c r="J11"/>
       <c r="K11"/>
@@ -1397,15 +1527,23 @@
       <c r="AP11"/>
       <c r="AQ11"/>
     </row>
-    <row r="12" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="12"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="19"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="19"/>
-      <c r="H12" s="20"/>
+    <row r="12" spans="1:43" s="2" customFormat="1" ht="47.25" x14ac:dyDescent="0.2">
+      <c r="A12" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12" s="44" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" s="39" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" s="39"/>
+      <c r="E12" s="39"/>
+      <c r="F12" s="39"/>
+      <c r="G12" s="39" t="s">
+        <v>37</v>
+      </c>
+      <c r="H12" s="39"/>
       <c r="I12"/>
       <c r="J12"/>
       <c r="K12"/>
@@ -1442,15 +1580,25 @@
       <c r="AP12"/>
       <c r="AQ12"/>
     </row>
-    <row r="13" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="12"/>
-      <c r="B13" s="10"/>
-      <c r="C13" s="19"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="19"/>
-      <c r="H13" s="20"/>
+    <row r="13" spans="1:43" s="2" customFormat="1" ht="47.25" x14ac:dyDescent="0.2">
+      <c r="A13" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="B13" s="44" t="s">
+        <v>51</v>
+      </c>
+      <c r="C13" s="39" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" s="39" t="s">
+        <v>37</v>
+      </c>
+      <c r="E13" s="39"/>
+      <c r="F13" s="39"/>
+      <c r="G13" s="39" t="s">
+        <v>37</v>
+      </c>
+      <c r="H13" s="39"/>
       <c r="I13"/>
       <c r="J13"/>
       <c r="K13"/>
@@ -1487,15 +1635,27 @@
       <c r="AP13"/>
       <c r="AQ13"/>
     </row>
-    <row r="14" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="12"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="19"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="19"/>
-      <c r="H14" s="20"/>
+    <row r="14" spans="1:43" s="2" customFormat="1" ht="47.25" x14ac:dyDescent="0.2">
+      <c r="A14" s="41" t="s">
+        <v>49</v>
+      </c>
+      <c r="B14" s="42" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" s="43" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" s="45"/>
+      <c r="E14" s="43" t="s">
+        <v>37</v>
+      </c>
+      <c r="F14" s="43" t="s">
+        <v>37</v>
+      </c>
+      <c r="G14" s="45"/>
+      <c r="H14" s="43" t="s">
+        <v>37</v>
+      </c>
       <c r="I14"/>
       <c r="J14"/>
       <c r="K14"/>
@@ -1532,15 +1692,23 @@
       <c r="AP14"/>
       <c r="AQ14"/>
     </row>
-    <row r="15" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="12"/>
-      <c r="B15" s="10"/>
-      <c r="C15" s="19"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="19"/>
-      <c r="G15" s="19"/>
-      <c r="H15" s="20"/>
+    <row r="15" spans="1:43" s="2" customFormat="1" ht="47.25" x14ac:dyDescent="0.2">
+      <c r="A15" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15" s="42" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" s="43"/>
+      <c r="D15" s="43" t="s">
+        <v>37</v>
+      </c>
+      <c r="E15" s="43"/>
+      <c r="F15" s="43"/>
+      <c r="G15" s="43"/>
+      <c r="H15" s="43" t="s">
+        <v>37</v>
+      </c>
       <c r="I15"/>
       <c r="J15"/>
       <c r="K15"/>
@@ -1577,15 +1745,21 @@
       <c r="AP15"/>
       <c r="AQ15"/>
     </row>
-    <row r="16" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="12"/>
-      <c r="B16" s="10"/>
-      <c r="C16" s="19"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="19"/>
-      <c r="G16" s="19"/>
-      <c r="H16" s="20"/>
+    <row r="16" spans="1:43" s="2" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="41" t="s">
+        <v>40</v>
+      </c>
+      <c r="B16" s="42" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" s="43"/>
+      <c r="D16" s="43"/>
+      <c r="E16" s="43"/>
+      <c r="F16" s="43"/>
+      <c r="G16" s="43" t="s">
+        <v>37</v>
+      </c>
+      <c r="H16" s="43"/>
       <c r="I16"/>
       <c r="J16"/>
       <c r="K16"/>
@@ -1622,15 +1796,23 @@
       <c r="AP16"/>
       <c r="AQ16"/>
     </row>
-    <row r="17" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="12"/>
-      <c r="B17" s="10"/>
-      <c r="C17" s="19"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="19"/>
-      <c r="G17" s="19"/>
-      <c r="H17" s="20"/>
+    <row r="17" spans="1:43" s="2" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="41" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17" s="42" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17" s="43"/>
+      <c r="D17" s="43"/>
+      <c r="E17" s="43"/>
+      <c r="F17" s="43"/>
+      <c r="G17" s="43" t="s">
+        <v>37</v>
+      </c>
+      <c r="H17" s="43" t="s">
+        <v>37</v>
+      </c>
       <c r="I17"/>
       <c r="J17"/>
       <c r="K17"/>
@@ -1668,14 +1850,14 @@
       <c r="AQ17"/>
     </row>
     <row r="18" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="12"/>
-      <c r="B18" s="10"/>
-      <c r="C18" s="19"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="19"/>
-      <c r="G18" s="19"/>
-      <c r="H18" s="20"/>
+      <c r="A18" s="37"/>
+      <c r="B18" s="38"/>
+      <c r="C18" s="39"/>
+      <c r="D18" s="39"/>
+      <c r="E18" s="39"/>
+      <c r="F18" s="39"/>
+      <c r="G18" s="39"/>
+      <c r="H18" s="39"/>
       <c r="I18"/>
       <c r="J18"/>
       <c r="K18"/>
@@ -1712,17 +1894,17 @@
       <c r="AP18"/>
       <c r="AQ18"/>
     </row>
-    <row r="19" spans="1:43" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A19" s="32" t="s">
-        <v>23</v>
-      </c>
-      <c r="B19" s="33"/>
-      <c r="C19" s="33"/>
-      <c r="D19" s="33"/>
-      <c r="E19" s="33"/>
-      <c r="F19" s="33"/>
-      <c r="G19" s="33"/>
-      <c r="H19" s="34"/>
+    <row r="19" spans="1:43" s="2" customFormat="1" ht="20.25" x14ac:dyDescent="0.2">
+      <c r="A19" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" s="46"/>
+      <c r="C19" s="46"/>
+      <c r="D19" s="46"/>
+      <c r="E19" s="46"/>
+      <c r="F19" s="46"/>
+      <c r="G19" s="46"/>
+      <c r="H19" s="46"/>
       <c r="I19"/>
       <c r="J19"/>
       <c r="K19"/>
@@ -1759,15 +1941,25 @@
       <c r="AP19"/>
       <c r="AQ19"/>
     </row>
-    <row r="20" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="12"/>
-      <c r="B20" s="10"/>
-      <c r="C20" s="19"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="19"/>
-      <c r="F20" s="19"/>
-      <c r="G20" s="19"/>
-      <c r="H20" s="20"/>
+    <row r="20" spans="1:43" s="2" customFormat="1" ht="65.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" s="44" t="s">
+        <v>35</v>
+      </c>
+      <c r="C20" s="39" t="s">
+        <v>37</v>
+      </c>
+      <c r="D20" s="39"/>
+      <c r="E20" s="39"/>
+      <c r="F20" s="39" t="s">
+        <v>37</v>
+      </c>
+      <c r="G20" s="39" t="s">
+        <v>37</v>
+      </c>
+      <c r="H20" s="39"/>
       <c r="I20"/>
       <c r="J20"/>
       <c r="K20"/>
@@ -1804,15 +1996,21 @@
       <c r="AP20"/>
       <c r="AQ20"/>
     </row>
-    <row r="21" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="12"/>
-      <c r="B21" s="10"/>
-      <c r="C21" s="19"/>
-      <c r="D21" s="19"/>
-      <c r="E21" s="19"/>
-      <c r="F21" s="19"/>
-      <c r="G21" s="19"/>
-      <c r="H21" s="20"/>
+    <row r="21" spans="1:43" s="2" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21" s="44" t="s">
+        <v>35</v>
+      </c>
+      <c r="C21" s="39"/>
+      <c r="D21" s="39" t="s">
+        <v>37</v>
+      </c>
+      <c r="E21" s="39"/>
+      <c r="F21" s="39"/>
+      <c r="G21" s="39"/>
+      <c r="H21" s="39"/>
       <c r="I21"/>
       <c r="J21"/>
       <c r="K21"/>
@@ -1849,15 +2047,25 @@
       <c r="AP21"/>
       <c r="AQ21"/>
     </row>
-    <row r="22" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="12"/>
-      <c r="B22" s="10"/>
-      <c r="C22" s="19"/>
-      <c r="D22" s="19"/>
-      <c r="E22" s="19"/>
-      <c r="F22" s="19"/>
-      <c r="G22" s="19"/>
-      <c r="H22" s="20"/>
+    <row r="22" spans="1:43" s="2" customFormat="1" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22" s="44" t="s">
+        <v>35</v>
+      </c>
+      <c r="C22" s="39" t="s">
+        <v>37</v>
+      </c>
+      <c r="D22" s="39" t="s">
+        <v>37</v>
+      </c>
+      <c r="E22" s="39" t="s">
+        <v>37</v>
+      </c>
+      <c r="F22" s="39"/>
+      <c r="G22" s="39"/>
+      <c r="H22" s="39"/>
       <c r="I22"/>
       <c r="J22"/>
       <c r="K22"/>
@@ -1894,15 +2102,21 @@
       <c r="AP22"/>
       <c r="AQ22"/>
     </row>
-    <row r="23" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="12"/>
-      <c r="B23" s="10"/>
-      <c r="C23" s="19"/>
-      <c r="D23" s="19"/>
-      <c r="E23" s="19"/>
-      <c r="F23" s="19"/>
-      <c r="G23" s="19"/>
-      <c r="H23" s="20"/>
+    <row r="23" spans="1:43" s="2" customFormat="1" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="37" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23" s="44" t="s">
+        <v>35</v>
+      </c>
+      <c r="C23" s="39"/>
+      <c r="D23" s="39" t="s">
+        <v>37</v>
+      </c>
+      <c r="E23" s="39"/>
+      <c r="F23" s="39"/>
+      <c r="G23" s="39"/>
+      <c r="H23" s="39"/>
       <c r="I23"/>
       <c r="J23"/>
       <c r="K23"/>
@@ -1940,14 +2154,14 @@
       <c r="AQ23"/>
     </row>
     <row r="24" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="12"/>
-      <c r="B24" s="10"/>
-      <c r="C24" s="19"/>
-      <c r="D24" s="19"/>
-      <c r="E24" s="19"/>
-      <c r="F24" s="19"/>
-      <c r="G24" s="19"/>
-      <c r="H24" s="20"/>
+      <c r="A24" s="37"/>
+      <c r="B24" s="47"/>
+      <c r="C24" s="48"/>
+      <c r="D24" s="48"/>
+      <c r="E24" s="48"/>
+      <c r="F24" s="48"/>
+      <c r="G24" s="48"/>
+      <c r="H24" s="48"/>
       <c r="I24"/>
       <c r="J24"/>
       <c r="K24"/>
@@ -1985,14 +2199,14 @@
       <c r="AQ24"/>
     </row>
     <row r="25" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="12"/>
-      <c r="B25" s="10"/>
-      <c r="C25" s="19"/>
-      <c r="D25" s="19"/>
-      <c r="E25" s="19"/>
-      <c r="F25" s="19"/>
-      <c r="G25" s="19"/>
-      <c r="H25" s="20"/>
+      <c r="A25" s="37"/>
+      <c r="B25" s="47"/>
+      <c r="C25" s="48"/>
+      <c r="D25" s="48"/>
+      <c r="E25" s="48"/>
+      <c r="F25" s="48"/>
+      <c r="G25" s="48"/>
+      <c r="H25" s="48"/>
       <c r="I25"/>
       <c r="J25"/>
       <c r="K25"/>
@@ -2030,14 +2244,14 @@
       <c r="AQ25"/>
     </row>
     <row r="26" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="12"/>
-      <c r="B26" s="10"/>
-      <c r="C26" s="19"/>
-      <c r="D26" s="19"/>
-      <c r="E26" s="19"/>
-      <c r="F26" s="19"/>
-      <c r="G26" s="19"/>
-      <c r="H26" s="20"/>
+      <c r="A26" s="37"/>
+      <c r="B26" s="47"/>
+      <c r="C26" s="48"/>
+      <c r="D26" s="48"/>
+      <c r="E26" s="48"/>
+      <c r="F26" s="48"/>
+      <c r="G26" s="48"/>
+      <c r="H26" s="48"/>
       <c r="I26"/>
       <c r="J26"/>
       <c r="K26"/>
@@ -2074,17 +2288,17 @@
       <c r="AP26"/>
       <c r="AQ26"/>
     </row>
-    <row r="27" spans="1:43" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A27" s="32" t="s">
-        <v>24</v>
-      </c>
-      <c r="B27" s="33"/>
-      <c r="C27" s="33"/>
-      <c r="D27" s="33"/>
-      <c r="E27" s="33"/>
-      <c r="F27" s="33"/>
-      <c r="G27" s="33"/>
-      <c r="H27" s="34"/>
+    <row r="27" spans="1:43" s="2" customFormat="1" ht="20.25" x14ac:dyDescent="0.2">
+      <c r="A27" s="46" t="s">
+        <v>20</v>
+      </c>
+      <c r="B27" s="46"/>
+      <c r="C27" s="46"/>
+      <c r="D27" s="46"/>
+      <c r="E27" s="46"/>
+      <c r="F27" s="46"/>
+      <c r="G27" s="46"/>
+      <c r="H27" s="46"/>
       <c r="I27"/>
       <c r="J27"/>
       <c r="K27"/>
@@ -2121,15 +2335,21 @@
       <c r="AP27"/>
       <c r="AQ27"/>
     </row>
-    <row r="28" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="12"/>
-      <c r="B28" s="10"/>
-      <c r="C28" s="19"/>
-      <c r="D28" s="19"/>
-      <c r="E28" s="19"/>
-      <c r="F28" s="19"/>
-      <c r="G28" s="19"/>
-      <c r="H28" s="20"/>
+    <row r="28" spans="1:43" s="2" customFormat="1" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="49" t="s">
+        <v>31</v>
+      </c>
+      <c r="B28" s="50" t="s">
+        <v>36</v>
+      </c>
+      <c r="C28" s="39" t="s">
+        <v>37</v>
+      </c>
+      <c r="D28" s="39"/>
+      <c r="E28" s="39"/>
+      <c r="F28" s="39"/>
+      <c r="G28" s="39"/>
+      <c r="H28" s="39"/>
       <c r="I28"/>
       <c r="J28"/>
       <c r="K28"/>
@@ -2166,15 +2386,21 @@
       <c r="AP28"/>
       <c r="AQ28"/>
     </row>
-    <row r="29" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="12"/>
-      <c r="B29" s="10"/>
-      <c r="C29" s="19"/>
-      <c r="D29" s="19"/>
-      <c r="E29" s="19"/>
-      <c r="F29" s="19"/>
-      <c r="G29" s="19"/>
-      <c r="H29" s="20"/>
+    <row r="29" spans="1:43" s="2" customFormat="1" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="B29" s="50" t="s">
+        <v>36</v>
+      </c>
+      <c r="C29" s="39"/>
+      <c r="D29" s="39" t="s">
+        <v>37</v>
+      </c>
+      <c r="E29" s="39"/>
+      <c r="F29" s="39"/>
+      <c r="G29" s="39"/>
+      <c r="H29" s="39"/>
       <c r="I29"/>
       <c r="J29"/>
       <c r="K29"/>
@@ -2211,15 +2437,27 @@
       <c r="AP29"/>
       <c r="AQ29"/>
     </row>
-    <row r="30" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="12"/>
-      <c r="B30" s="10"/>
-      <c r="C30" s="19"/>
-      <c r="D30" s="19"/>
-      <c r="E30" s="19"/>
-      <c r="F30" s="19"/>
-      <c r="G30" s="19"/>
-      <c r="H30" s="20"/>
+    <row r="30" spans="1:43" s="2" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="B30" s="50" t="s">
+        <v>36</v>
+      </c>
+      <c r="C30" s="39" t="s">
+        <v>37</v>
+      </c>
+      <c r="D30" s="39" t="s">
+        <v>37</v>
+      </c>
+      <c r="E30" s="39"/>
+      <c r="F30" s="39" t="s">
+        <v>37</v>
+      </c>
+      <c r="G30" s="39" t="s">
+        <v>37</v>
+      </c>
+      <c r="H30" s="39"/>
       <c r="I30"/>
       <c r="J30"/>
       <c r="K30"/>
@@ -2256,15 +2494,25 @@
       <c r="AP30"/>
       <c r="AQ30"/>
     </row>
-    <row r="31" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="12"/>
-      <c r="B31" s="10"/>
-      <c r="C31" s="19"/>
-      <c r="D31" s="19"/>
-      <c r="E31" s="19"/>
-      <c r="F31" s="19"/>
-      <c r="G31" s="19"/>
-      <c r="H31" s="20"/>
+    <row r="31" spans="1:43" s="2" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="51" t="s">
+        <v>34</v>
+      </c>
+      <c r="B31" s="50" t="s">
+        <v>36</v>
+      </c>
+      <c r="C31" s="39" t="s">
+        <v>37</v>
+      </c>
+      <c r="D31" s="39"/>
+      <c r="E31" s="39" t="s">
+        <v>37</v>
+      </c>
+      <c r="F31" s="39" t="s">
+        <v>37</v>
+      </c>
+      <c r="G31" s="39"/>
+      <c r="H31" s="39"/>
       <c r="I31"/>
       <c r="J31"/>
       <c r="K31"/>
@@ -2302,14 +2550,14 @@
       <c r="AQ31"/>
     </row>
     <row r="32" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="12"/>
-      <c r="B32" s="10"/>
-      <c r="C32" s="19"/>
-      <c r="D32" s="19"/>
-      <c r="E32" s="19"/>
-      <c r="F32" s="19"/>
-      <c r="G32" s="19"/>
-      <c r="H32" s="20"/>
+      <c r="A32" s="37"/>
+      <c r="B32" s="47"/>
+      <c r="C32" s="48"/>
+      <c r="D32" s="48"/>
+      <c r="E32" s="48"/>
+      <c r="F32" s="48"/>
+      <c r="G32" s="48"/>
+      <c r="H32" s="48"/>
       <c r="I32"/>
       <c r="J32"/>
       <c r="K32"/>
@@ -2347,14 +2595,14 @@
       <c r="AQ32"/>
     </row>
     <row r="33" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="13"/>
-      <c r="B33" s="11"/>
-      <c r="C33" s="21"/>
-      <c r="D33" s="21"/>
-      <c r="E33" s="21"/>
-      <c r="F33" s="21"/>
-      <c r="G33" s="21"/>
-      <c r="H33" s="22"/>
+      <c r="A33" s="52"/>
+      <c r="B33" s="53"/>
+      <c r="C33" s="54"/>
+      <c r="D33" s="54"/>
+      <c r="E33" s="54"/>
+      <c r="F33" s="54"/>
+      <c r="G33" s="54"/>
+      <c r="H33" s="54"/>
       <c r="I33"/>
       <c r="J33"/>
       <c r="K33"/>
@@ -2392,14 +2640,14 @@
       <c r="AQ33"/>
     </row>
     <row r="34" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="14"/>
-      <c r="B34" s="15"/>
-      <c r="C34" s="23"/>
-      <c r="D34" s="23"/>
-      <c r="E34" s="23"/>
-      <c r="F34" s="23"/>
-      <c r="G34" s="23"/>
-      <c r="H34" s="24"/>
+      <c r="A34" s="33"/>
+      <c r="B34" s="34"/>
+      <c r="C34" s="35"/>
+      <c r="D34" s="35"/>
+      <c r="E34" s="35"/>
+      <c r="F34" s="35"/>
+      <c r="G34" s="35"/>
+      <c r="H34" s="36"/>
       <c r="I34"/>
       <c r="J34"/>
       <c r="K34"/>
@@ -2529,11 +2777,6 @@
     <row r="81" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="F3:H3"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="A8:H8"/>
@@ -2541,11 +2784,16 @@
     <mergeCell ref="A27:H27"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="A5:H5"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="F3:H3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.51181102362204722" footer="0.51181102362204722"/>
-  <pageSetup paperSize="9" scale="48" orientation="portrait"/>
+  <pageSetup paperSize="9" scale="44" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
--- a/portefeuille_competence/Tableau_de_synthèse.xlsx
+++ b/portefeuille_competence/Tableau_de_synthèse.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Synchro PC DELL E5470\Users\Valentin L\Documents\BTS_SIO\PortFolio\finale\portefeuille_competence\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{721C305C-71A1-42CC-9BDA-46AB63B44661}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{860E3BB4-D419-42C0-A330-D13C791ACBA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="54">
   <si>
     <t>Gérer le patrimoine informatique</t>
   </si>
@@ -198,6 +198,12 @@
   </si>
   <si>
     <t>15/05/24 au 22/05/24</t>
+  </si>
+  <si>
+    <t>VLAN</t>
+  </si>
+  <si>
+    <t>14/02/24 au 21/02/24</t>
   </si>
 </sst>
 </file>
@@ -660,7 +666,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -698,9 +704,105 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -724,105 +826,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1168,8 +1171,8 @@
   </sheetPr>
   <dimension ref="A1:AQ81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1182,56 +1185,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:43" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13" t="s">
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="H1" s="13"/>
+      <c r="H1" s="36"/>
     </row>
     <row r="2" spans="1:43" ht="41.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
     </row>
     <row r="3" spans="1:43" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="20" t="s">
+      <c r="B3" s="47"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="G3" s="15"/>
-      <c r="H3" s="21"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="53"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
     <row r="4" spans="1:43" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="18"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="19"/>
+      <c r="B4" s="50"/>
+      <c r="C4" s="50"/>
+      <c r="D4" s="50"/>
+      <c r="E4" s="51"/>
       <c r="F4" s="10" t="s">
         <v>8</v>
       </c>
@@ -1243,22 +1246,22 @@
       </c>
     </row>
     <row r="5" spans="1:43" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="26" t="s">
+      <c r="A5" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="27"/>
-      <c r="C5" s="27"/>
-      <c r="D5" s="27"/>
-      <c r="E5" s="27"/>
-      <c r="F5" s="27"/>
-      <c r="G5" s="27"/>
-      <c r="H5" s="28"/>
+      <c r="B5" s="44"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="44"/>
+      <c r="G5" s="44"/>
+      <c r="H5" s="45"/>
     </row>
     <row r="6" spans="1:43" ht="90" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="22" t="s">
+      <c r="A6" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="24" t="s">
+      <c r="B6" s="41" t="s">
         <v>18</v>
       </c>
       <c r="C6" s="6" t="s">
@@ -1281,8 +1284,8 @@
       </c>
     </row>
     <row r="7" spans="1:43" s="2" customFormat="1" ht="324.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="23"/>
-      <c r="B7" s="25"/>
+      <c r="A7" s="35"/>
+      <c r="B7" s="42"/>
       <c r="C7" s="8" t="s">
         <v>9</v>
       </c>
@@ -1338,16 +1341,16 @@
       <c r="AQ7"/>
     </row>
     <row r="8" spans="1:43" s="2" customFormat="1" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A8" s="30" t="s">
+      <c r="A8" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="31"/>
-      <c r="C8" s="31"/>
-      <c r="D8" s="31"/>
-      <c r="E8" s="31"/>
-      <c r="F8" s="31"/>
-      <c r="G8" s="31"/>
-      <c r="H8" s="32"/>
+      <c r="B8" s="38"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="38"/>
+      <c r="G8" s="38"/>
+      <c r="H8" s="39"/>
       <c r="I8"/>
       <c r="J8"/>
       <c r="K8"/>
@@ -1385,14 +1388,14 @@
       <c r="AQ8"/>
     </row>
     <row r="9" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="37"/>
-      <c r="B9" s="38"/>
-      <c r="C9" s="39"/>
-      <c r="D9" s="39"/>
-      <c r="E9" s="39"/>
-      <c r="F9" s="39"/>
-      <c r="G9" s="39"/>
-      <c r="H9" s="39"/>
+      <c r="A9" s="18"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="20"/>
       <c r="I9"/>
       <c r="J9"/>
       <c r="K9"/>
@@ -1429,15 +1432,25 @@
       <c r="AP9"/>
       <c r="AQ9"/>
     </row>
-    <row r="10" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="40"/>
-      <c r="B10" s="38"/>
-      <c r="C10" s="39"/>
-      <c r="D10" s="39"/>
-      <c r="E10" s="39"/>
-      <c r="F10" s="39"/>
-      <c r="G10" s="39"/>
-      <c r="H10" s="39"/>
+    <row r="10" spans="1:43" s="2" customFormat="1" ht="47.25" x14ac:dyDescent="0.2">
+      <c r="A10" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="B10" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="H10" s="20"/>
       <c r="I10"/>
       <c r="J10"/>
       <c r="K10"/>
@@ -1475,22 +1488,22 @@
       <c r="AQ10"/>
     </row>
     <row r="11" spans="1:43" s="2" customFormat="1" ht="47.25" x14ac:dyDescent="0.2">
-      <c r="A11" s="41" t="s">
+      <c r="A11" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="B11" s="42" t="s">
+      <c r="B11" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="C11" s="43" t="s">
-        <v>37</v>
-      </c>
-      <c r="D11" s="43"/>
-      <c r="E11" s="43"/>
-      <c r="F11" s="43"/>
-      <c r="G11" s="43" t="s">
-        <v>37</v>
-      </c>
-      <c r="H11" s="43"/>
+      <c r="C11" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" s="23"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="H11" s="23"/>
       <c r="I11"/>
       <c r="J11"/>
       <c r="K11"/>
@@ -1528,22 +1541,22 @@
       <c r="AQ11"/>
     </row>
     <row r="12" spans="1:43" s="2" customFormat="1" ht="47.25" x14ac:dyDescent="0.2">
-      <c r="A12" s="37" t="s">
+      <c r="A12" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="B12" s="44" t="s">
+      <c r="B12" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="C12" s="39" t="s">
-        <v>37</v>
-      </c>
-      <c r="D12" s="39"/>
-      <c r="E12" s="39"/>
-      <c r="F12" s="39"/>
-      <c r="G12" s="39" t="s">
-        <v>37</v>
-      </c>
-      <c r="H12" s="39"/>
+      <c r="C12" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" s="20"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="H12" s="20"/>
       <c r="I12"/>
       <c r="J12"/>
       <c r="K12"/>
@@ -1581,24 +1594,24 @@
       <c r="AQ12"/>
     </row>
     <row r="13" spans="1:43" s="2" customFormat="1" ht="47.25" x14ac:dyDescent="0.2">
-      <c r="A13" s="37" t="s">
+      <c r="A13" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="B13" s="44" t="s">
+      <c r="B13" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="C13" s="39" t="s">
-        <v>37</v>
-      </c>
-      <c r="D13" s="39" t="s">
-        <v>37</v>
-      </c>
-      <c r="E13" s="39"/>
-      <c r="F13" s="39"/>
-      <c r="G13" s="39" t="s">
-        <v>37</v>
-      </c>
-      <c r="H13" s="39"/>
+      <c r="C13" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="H13" s="20"/>
       <c r="I13"/>
       <c r="J13"/>
       <c r="K13"/>
@@ -1636,24 +1649,24 @@
       <c r="AQ13"/>
     </row>
     <row r="14" spans="1:43" s="2" customFormat="1" ht="47.25" x14ac:dyDescent="0.2">
-      <c r="A14" s="41" t="s">
+      <c r="A14" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="B14" s="42" t="s">
+      <c r="B14" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="C14" s="43" t="s">
-        <v>37</v>
-      </c>
-      <c r="D14" s="45"/>
-      <c r="E14" s="43" t="s">
-        <v>37</v>
-      </c>
-      <c r="F14" s="43" t="s">
-        <v>37</v>
-      </c>
-      <c r="G14" s="45"/>
-      <c r="H14" s="43" t="s">
+      <c r="C14" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" s="25"/>
+      <c r="E14" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="F14" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="G14" s="25"/>
+      <c r="H14" s="23" t="s">
         <v>37</v>
       </c>
       <c r="I14"/>
@@ -1693,20 +1706,20 @@
       <c r="AQ14"/>
     </row>
     <row r="15" spans="1:43" s="2" customFormat="1" ht="47.25" x14ac:dyDescent="0.2">
-      <c r="A15" s="41" t="s">
+      <c r="A15" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="B15" s="42" t="s">
+      <c r="B15" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="C15" s="43"/>
-      <c r="D15" s="43" t="s">
-        <v>37</v>
-      </c>
-      <c r="E15" s="43"/>
-      <c r="F15" s="43"/>
-      <c r="G15" s="43"/>
-      <c r="H15" s="43" t="s">
+      <c r="C15" s="23"/>
+      <c r="D15" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="E15" s="23"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="23"/>
+      <c r="H15" s="23" t="s">
         <v>37</v>
       </c>
       <c r="I15"/>
@@ -1746,20 +1759,20 @@
       <c r="AQ15"/>
     </row>
     <row r="16" spans="1:43" s="2" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="41" t="s">
+      <c r="A16" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="B16" s="42" t="s">
+      <c r="B16" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="C16" s="43"/>
-      <c r="D16" s="43"/>
-      <c r="E16" s="43"/>
-      <c r="F16" s="43"/>
-      <c r="G16" s="43" t="s">
-        <v>37</v>
-      </c>
-      <c r="H16" s="43"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="H16" s="23"/>
       <c r="I16"/>
       <c r="J16"/>
       <c r="K16"/>
@@ -1797,20 +1810,20 @@
       <c r="AQ16"/>
     </row>
     <row r="17" spans="1:43" s="2" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="41" t="s">
+      <c r="A17" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="B17" s="42" t="s">
+      <c r="B17" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="C17" s="43"/>
-      <c r="D17" s="43"/>
-      <c r="E17" s="43"/>
-      <c r="F17" s="43"/>
-      <c r="G17" s="43" t="s">
-        <v>37</v>
-      </c>
-      <c r="H17" s="43" t="s">
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="H17" s="23" t="s">
         <v>37</v>
       </c>
       <c r="I17"/>
@@ -1850,14 +1863,14 @@
       <c r="AQ17"/>
     </row>
     <row r="18" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="37"/>
-      <c r="B18" s="38"/>
-      <c r="C18" s="39"/>
-      <c r="D18" s="39"/>
-      <c r="E18" s="39"/>
-      <c r="F18" s="39"/>
-      <c r="G18" s="39"/>
-      <c r="H18" s="39"/>
+      <c r="A18" s="18"/>
+      <c r="B18" s="19"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="20"/>
+      <c r="H18" s="20"/>
       <c r="I18"/>
       <c r="J18"/>
       <c r="K18"/>
@@ -1895,16 +1908,16 @@
       <c r="AQ18"/>
     </row>
     <row r="19" spans="1:43" s="2" customFormat="1" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A19" s="46" t="s">
+      <c r="A19" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="46"/>
-      <c r="C19" s="46"/>
-      <c r="D19" s="46"/>
-      <c r="E19" s="46"/>
-      <c r="F19" s="46"/>
-      <c r="G19" s="46"/>
-      <c r="H19" s="46"/>
+      <c r="B19" s="40"/>
+      <c r="C19" s="40"/>
+      <c r="D19" s="40"/>
+      <c r="E19" s="40"/>
+      <c r="F19" s="40"/>
+      <c r="G19" s="40"/>
+      <c r="H19" s="40"/>
       <c r="I19"/>
       <c r="J19"/>
       <c r="K19"/>
@@ -1942,24 +1955,24 @@
       <c r="AQ19"/>
     </row>
     <row r="20" spans="1:43" s="2" customFormat="1" ht="65.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="29" t="s">
+      <c r="A20" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="B20" s="44" t="s">
+      <c r="B20" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="39" t="s">
-        <v>37</v>
-      </c>
-      <c r="D20" s="39"/>
-      <c r="E20" s="39"/>
-      <c r="F20" s="39" t="s">
-        <v>37</v>
-      </c>
-      <c r="G20" s="39" t="s">
-        <v>37</v>
-      </c>
-      <c r="H20" s="39"/>
+      <c r="C20" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="D20" s="20"/>
+      <c r="E20" s="20"/>
+      <c r="F20" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="G20" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="H20" s="20"/>
       <c r="I20"/>
       <c r="J20"/>
       <c r="K20"/>
@@ -1997,20 +2010,20 @@
       <c r="AQ20"/>
     </row>
     <row r="21" spans="1:43" s="2" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="29" t="s">
+      <c r="A21" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="B21" s="44" t="s">
+      <c r="B21" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="C21" s="39"/>
-      <c r="D21" s="39" t="s">
-        <v>37</v>
-      </c>
-      <c r="E21" s="39"/>
-      <c r="F21" s="39"/>
-      <c r="G21" s="39"/>
-      <c r="H21" s="39"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="E21" s="20"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="20"/>
+      <c r="H21" s="20"/>
       <c r="I21"/>
       <c r="J21"/>
       <c r="K21"/>
@@ -2048,24 +2061,24 @@
       <c r="AQ21"/>
     </row>
     <row r="22" spans="1:43" s="2" customFormat="1" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="37" t="s">
+      <c r="A22" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="B22" s="44" t="s">
+      <c r="B22" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="C22" s="39" t="s">
-        <v>37</v>
-      </c>
-      <c r="D22" s="39" t="s">
-        <v>37</v>
-      </c>
-      <c r="E22" s="39" t="s">
-        <v>37</v>
-      </c>
-      <c r="F22" s="39"/>
-      <c r="G22" s="39"/>
-      <c r="H22" s="39"/>
+      <c r="C22" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="D22" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="E22" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="F22" s="20"/>
+      <c r="G22" s="20"/>
+      <c r="H22" s="20"/>
       <c r="I22"/>
       <c r="J22"/>
       <c r="K22"/>
@@ -2103,20 +2116,20 @@
       <c r="AQ22"/>
     </row>
     <row r="23" spans="1:43" s="2" customFormat="1" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="37" t="s">
+      <c r="A23" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="B23" s="44" t="s">
+      <c r="B23" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="C23" s="39"/>
-      <c r="D23" s="39" t="s">
-        <v>37</v>
-      </c>
-      <c r="E23" s="39"/>
-      <c r="F23" s="39"/>
-      <c r="G23" s="39"/>
-      <c r="H23" s="39"/>
+      <c r="C23" s="20"/>
+      <c r="D23" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="E23" s="20"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="20"/>
+      <c r="H23" s="20"/>
       <c r="I23"/>
       <c r="J23"/>
       <c r="K23"/>
@@ -2154,14 +2167,14 @@
       <c r="AQ23"/>
     </row>
     <row r="24" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="37"/>
-      <c r="B24" s="47"/>
-      <c r="C24" s="48"/>
-      <c r="D24" s="48"/>
-      <c r="E24" s="48"/>
-      <c r="F24" s="48"/>
-      <c r="G24" s="48"/>
-      <c r="H24" s="48"/>
+      <c r="A24" s="18"/>
+      <c r="B24" s="26"/>
+      <c r="C24" s="27"/>
+      <c r="D24" s="27"/>
+      <c r="E24" s="27"/>
+      <c r="F24" s="27"/>
+      <c r="G24" s="27"/>
+      <c r="H24" s="27"/>
       <c r="I24"/>
       <c r="J24"/>
       <c r="K24"/>
@@ -2199,14 +2212,14 @@
       <c r="AQ24"/>
     </row>
     <row r="25" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="37"/>
-      <c r="B25" s="47"/>
-      <c r="C25" s="48"/>
-      <c r="D25" s="48"/>
-      <c r="E25" s="48"/>
-      <c r="F25" s="48"/>
-      <c r="G25" s="48"/>
-      <c r="H25" s="48"/>
+      <c r="A25" s="18"/>
+      <c r="B25" s="26"/>
+      <c r="C25" s="27"/>
+      <c r="D25" s="27"/>
+      <c r="E25" s="27"/>
+      <c r="F25" s="27"/>
+      <c r="G25" s="27"/>
+      <c r="H25" s="27"/>
       <c r="I25"/>
       <c r="J25"/>
       <c r="K25"/>
@@ -2244,14 +2257,14 @@
       <c r="AQ25"/>
     </row>
     <row r="26" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="37"/>
-      <c r="B26" s="47"/>
-      <c r="C26" s="48"/>
-      <c r="D26" s="48"/>
-      <c r="E26" s="48"/>
-      <c r="F26" s="48"/>
-      <c r="G26" s="48"/>
-      <c r="H26" s="48"/>
+      <c r="A26" s="18"/>
+      <c r="B26" s="26"/>
+      <c r="C26" s="27"/>
+      <c r="D26" s="27"/>
+      <c r="E26" s="27"/>
+      <c r="F26" s="27"/>
+      <c r="G26" s="27"/>
+      <c r="H26" s="27"/>
       <c r="I26"/>
       <c r="J26"/>
       <c r="K26"/>
@@ -2289,16 +2302,16 @@
       <c r="AQ26"/>
     </row>
     <row r="27" spans="1:43" s="2" customFormat="1" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A27" s="46" t="s">
+      <c r="A27" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="B27" s="46"/>
-      <c r="C27" s="46"/>
-      <c r="D27" s="46"/>
-      <c r="E27" s="46"/>
-      <c r="F27" s="46"/>
-      <c r="G27" s="46"/>
-      <c r="H27" s="46"/>
+      <c r="B27" s="40"/>
+      <c r="C27" s="40"/>
+      <c r="D27" s="40"/>
+      <c r="E27" s="40"/>
+      <c r="F27" s="40"/>
+      <c r="G27" s="40"/>
+      <c r="H27" s="40"/>
       <c r="I27"/>
       <c r="J27"/>
       <c r="K27"/>
@@ -2336,20 +2349,20 @@
       <c r="AQ27"/>
     </row>
     <row r="28" spans="1:43" s="2" customFormat="1" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="49" t="s">
+      <c r="A28" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="B28" s="50" t="s">
+      <c r="B28" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="C28" s="39" t="s">
-        <v>37</v>
-      </c>
-      <c r="D28" s="39"/>
-      <c r="E28" s="39"/>
-      <c r="F28" s="39"/>
-      <c r="G28" s="39"/>
-      <c r="H28" s="39"/>
+      <c r="C28" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="D28" s="20"/>
+      <c r="E28" s="20"/>
+      <c r="F28" s="20"/>
+      <c r="G28" s="20"/>
+      <c r="H28" s="20"/>
       <c r="I28"/>
       <c r="J28"/>
       <c r="K28"/>
@@ -2387,20 +2400,20 @@
       <c r="AQ28"/>
     </row>
     <row r="29" spans="1:43" s="2" customFormat="1" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="29" t="s">
+      <c r="A29" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="B29" s="50" t="s">
+      <c r="B29" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="C29" s="39"/>
-      <c r="D29" s="39" t="s">
-        <v>37</v>
-      </c>
-      <c r="E29" s="39"/>
-      <c r="F29" s="39"/>
-      <c r="G29" s="39"/>
-      <c r="H29" s="39"/>
+      <c r="C29" s="20"/>
+      <c r="D29" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="E29" s="20"/>
+      <c r="F29" s="20"/>
+      <c r="G29" s="20"/>
+      <c r="H29" s="20"/>
       <c r="I29"/>
       <c r="J29"/>
       <c r="K29"/>
@@ -2438,26 +2451,26 @@
       <c r="AQ29"/>
     </row>
     <row r="30" spans="1:43" s="2" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="29" t="s">
+      <c r="A30" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="B30" s="50" t="s">
+      <c r="B30" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="C30" s="39" t="s">
-        <v>37</v>
-      </c>
-      <c r="D30" s="39" t="s">
-        <v>37</v>
-      </c>
-      <c r="E30" s="39"/>
-      <c r="F30" s="39" t="s">
-        <v>37</v>
-      </c>
-      <c r="G30" s="39" t="s">
-        <v>37</v>
-      </c>
-      <c r="H30" s="39"/>
+      <c r="C30" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="D30" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="E30" s="20"/>
+      <c r="F30" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="G30" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="H30" s="20"/>
       <c r="I30"/>
       <c r="J30"/>
       <c r="K30"/>
@@ -2495,24 +2508,24 @@
       <c r="AQ30"/>
     </row>
     <row r="31" spans="1:43" s="2" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="51" t="s">
+      <c r="A31" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="B31" s="50" t="s">
+      <c r="B31" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="C31" s="39" t="s">
-        <v>37</v>
-      </c>
-      <c r="D31" s="39"/>
-      <c r="E31" s="39" t="s">
-        <v>37</v>
-      </c>
-      <c r="F31" s="39" t="s">
-        <v>37</v>
-      </c>
-      <c r="G31" s="39"/>
-      <c r="H31" s="39"/>
+      <c r="C31" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="D31" s="20"/>
+      <c r="E31" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="F31" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="G31" s="20"/>
+      <c r="H31" s="20"/>
       <c r="I31"/>
       <c r="J31"/>
       <c r="K31"/>
@@ -2550,14 +2563,14 @@
       <c r="AQ31"/>
     </row>
     <row r="32" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="37"/>
-      <c r="B32" s="47"/>
-      <c r="C32" s="48"/>
-      <c r="D32" s="48"/>
-      <c r="E32" s="48"/>
-      <c r="F32" s="48"/>
-      <c r="G32" s="48"/>
-      <c r="H32" s="48"/>
+      <c r="A32" s="18"/>
+      <c r="B32" s="26"/>
+      <c r="C32" s="27"/>
+      <c r="D32" s="27"/>
+      <c r="E32" s="27"/>
+      <c r="F32" s="27"/>
+      <c r="G32" s="27"/>
+      <c r="H32" s="27"/>
       <c r="I32"/>
       <c r="J32"/>
       <c r="K32"/>
@@ -2595,14 +2608,14 @@
       <c r="AQ32"/>
     </row>
     <row r="33" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="52"/>
-      <c r="B33" s="53"/>
-      <c r="C33" s="54"/>
-      <c r="D33" s="54"/>
-      <c r="E33" s="54"/>
-      <c r="F33" s="54"/>
-      <c r="G33" s="54"/>
-      <c r="H33" s="54"/>
+      <c r="A33" s="31"/>
+      <c r="B33" s="32"/>
+      <c r="C33" s="33"/>
+      <c r="D33" s="33"/>
+      <c r="E33" s="33"/>
+      <c r="F33" s="33"/>
+      <c r="G33" s="33"/>
+      <c r="H33" s="33"/>
       <c r="I33"/>
       <c r="J33"/>
       <c r="K33"/>
@@ -2640,14 +2653,14 @@
       <c r="AQ33"/>
     </row>
     <row r="34" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="33"/>
-      <c r="B34" s="34"/>
-      <c r="C34" s="35"/>
-      <c r="D34" s="35"/>
-      <c r="E34" s="35"/>
-      <c r="F34" s="35"/>
-      <c r="G34" s="35"/>
-      <c r="H34" s="36"/>
+      <c r="A34" s="14"/>
+      <c r="B34" s="15"/>
+      <c r="C34" s="16"/>
+      <c r="D34" s="16"/>
+      <c r="E34" s="16"/>
+      <c r="F34" s="16"/>
+      <c r="G34" s="16"/>
+      <c r="H34" s="17"/>
       <c r="I34"/>
       <c r="J34"/>
       <c r="K34"/>
@@ -2777,6 +2790,11 @@
     <row r="81" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="F3:H3"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="A8:H8"/>
@@ -2784,11 +2802,6 @@
     <mergeCell ref="A27:H27"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="A5:H5"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="F3:H3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
